--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/HOP_DONG.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/HOP_DONG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roo\Desktop\HRM\trunk\03. SourceCode\BKI_QLTTQuocAnh\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Son Pham\Desktop\DVMD\trunk\03. SourceCode\BKI_QLTTQuocAnh\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="292">
   <si>
     <t>MA_HOP_DONG</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>100056</t>
-  </si>
-  <si>
-    <t>HN_HD0</t>
   </si>
   <si>
     <t>MA_LOAI_HOP_DONG</t>
@@ -1035,7 +1032,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
@@ -1240,6 +1237,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1275,6 +1289,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1430,10 +1461,10 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:N1003"/>
+  <dimension ref="A1:N1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1486,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1464,28 +1495,28 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>2</v>
@@ -1504,11 +1535,8 @@
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -1523,13 +1551,13 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L2" s="9">
         <v>42301</v>
@@ -1550,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>8</v>
@@ -1565,17 +1593,15 @@
         <v>5</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L3" s="9">
-        <v>42269</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="L3" s="9"/>
       <c r="M3" s="9">
         <v>42290</v>
       </c>
@@ -6583,6 +6609,7 @@
       <c r="M1003" s="9"/>
       <c r="N1003" s="9"/>
     </row>
+    <row r="1004" spans="12:14" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="B4:N1000 B1:H3 L1:N3" name="Range1"/>
@@ -6612,68 +6639,68 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -6698,24 +6725,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -6726,24 +6753,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -6754,230 +6781,230 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -7001,21 +7028,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -7029,21 +7056,21 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -7057,136 +7084,136 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7211,616 +7238,616 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D44" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D46" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D47" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D54" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D55" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D56" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D57" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D58" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D59" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D60" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D61" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/HOP_DONG.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/HOP_DONG.xlsx
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="292">
   <si>
     <t>MA_HOP_DONG</t>
   </si>
@@ -1463,8 +1463,8 @@
   </sheetPr>
   <dimension ref="A1:N1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1535,6 +1535,9 @@
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1565,7 +1568,9 @@
       <c r="M2" s="9">
         <v>42654</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="9">
+        <v>42290</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -1601,9 +1606,11 @@
       <c r="K3" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="9">
+        <v>42302</v>
+      </c>
       <c r="M3" s="9">
-        <v>42290</v>
+        <v>42656</v>
       </c>
       <c r="N3" s="9">
         <v>42291</v>
